--- a/InputFiles/TC04_Canine_StudyCoT7B-Breed-Sex_Male.xlsx
+++ b/InputFiles/TC04_Canine_StudyCoT7B-Breed-Sex_Male.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDADE2-FDC1-4F85-9FFE-5A255D2A0973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D40A91-F6FB-487F-B291-FBC4B5139E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -85,22 +85,6 @@
   CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
   coalesce(s.clinical_study_designation,'') AS `Study Code`
 </t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-WHERE s.clinical_study_designation IN ['COT007B'] and demo.breed in ['Vizsla'] and demo.sex in['Male']
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
   </si>
   <si>
     <t xml:space="preserve">MATCH (f:file)--&gt;(parent)
@@ -179,6 +163,22 @@
   </si>
   <si>
     <t>TC04_Canine_StudyCoT7B-Breed-Sex_Male_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+WHERE s.clinical_study_designation IN ['COTC007B'] and demo.breed in ['Vizsla'] and demo.sex in['Male']
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C5" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -594,16 +594,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="255.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -611,16 +611,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="240.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -628,16 +628,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
